--- a/Politiek.xlsx
+++ b/Politiek.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woute\Downloads\chromedriver_win32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wouter\Nieuwe map\peilingen-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378900B5-A161-49C3-99D7-54091941DB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57CA437-DAA1-48E2-8367-466389765479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Politiek" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,9 +113,6 @@
     <t>SGP</t>
   </si>
   <si>
-    <t>Naam</t>
-  </si>
-  <si>
     <t>PvdD</t>
   </si>
   <si>
@@ -116,9 +125,6 @@
     <t>Denk</t>
   </si>
   <si>
-    <t>PvdA</t>
-  </si>
-  <si>
     <t>Volt</t>
   </si>
   <si>
@@ -126,6 +132,12 @@
   </si>
   <si>
     <t>NSC</t>
+  </si>
+  <si>
+    <t>Partij</t>
+  </si>
+  <si>
+    <t>GL/PvdA</t>
   </si>
 </sst>
 </file>
@@ -637,24 +649,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -969,17 +981,17 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -1030,7 +1042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1242,9 +1254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -1295,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1401,9 +1413,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1454,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1507,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1560,9 +1572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1613,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1666,9 +1678,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>-0.5</v>
@@ -1719,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1772,9 +1784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>-0.5</v>
@@ -1825,9 +1837,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1878,9 +1890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1931,53 +1943,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <f>AVERAGE(B13,B11)</f>
+        <v>-0.25</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f t="shared" ref="C19:Q19" si="0">AVERAGE(C13,C11)</f>
+        <v>0.5</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.58499999999999996</v>
       </c>
       <c r="E19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
       </c>
       <c r="K19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
       </c>
       <c r="M19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-8.4999999999999992E-2</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>-0.32999999999999996</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1994,13 +2025,13 @@
       <selection sqref="A1:P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2050,7 +2081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.5</v>
       </c>
@@ -2100,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.75</v>
       </c>
@@ -2150,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.5</v>
       </c>
@@ -2200,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -2250,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2300,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -2350,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.25</v>
       </c>
@@ -2400,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2450,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -2500,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-0.25</v>
       </c>
@@ -2550,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2600,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.25</v>
       </c>
@@ -2650,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.5</v>
       </c>
@@ -2700,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.25</v>
       </c>
@@ -2750,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.5</v>
       </c>
@@ -2800,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2850,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
